--- a/server/loadDataFromExcelToDb/data.xlsx
+++ b/server/loadDataFromExcelToDb/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="AdminCenters"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="233">
   <si>
     <t>name</t>
   </si>
@@ -723,9 +723,6 @@
   </si>
   <si>
     <t>3600.00</t>
-  </si>
-  <si>
-    <t>Респбуклика Саха Якутия</t>
   </si>
   <si>
     <t>3083523.00</t>
@@ -797,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -829,29 +826,20 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,14 +1145,14 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="40.71928571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1177,7 +1165,7 @@
       <c r="C1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1191,7 +1179,7 @@
       <c r="C2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>69434.51</v>
       </c>
     </row>
@@ -1205,7 +1193,7 @@
       <c r="C3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>156819.78</v>
       </c>
     </row>
@@ -1219,7 +1207,7 @@
       <c r="C4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>107338.19</v>
       </c>
     </row>
@@ -1233,7 +1221,7 @@
       <c r="C5" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>29421.33</v>
       </c>
     </row>
@@ -1247,7 +1235,7 @@
       <c r="C6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>55558.28</v>
       </c>
     </row>
@@ -1261,7 +1249,7 @@
       <c r="C7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>223582.55</v>
       </c>
     </row>
@@ -1275,7 +1263,7 @@
       <c r="C8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>42050.25</v>
       </c>
     </row>
@@ -1289,7 +1277,7 @@
       <c r="C9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>67774.17</v>
       </c>
     </row>
@@ -1303,7 +1291,7 @@
       <c r="C10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>137428.06</v>
       </c>
     </row>
@@ -1317,7 +1305,7 @@
       <c r="C11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>55193.48</v>
       </c>
     </row>
@@ -1331,7 +1319,7 @@
       <c r="C12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>45624.32</v>
       </c>
     </row>
@@ -1345,7 +1333,7 @@
       <c r="C13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>140222.21</v>
       </c>
     </row>
@@ -1359,7 +1347,7 @@
       <c r="C14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>107789.29</v>
       </c>
     </row>
@@ -1373,7 +1361,7 @@
       <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>76999.16</v>
       </c>
     </row>
@@ -1387,7 +1375,7 @@
       <c r="C16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>11733.05</v>
       </c>
     </row>
@@ -1401,7 +1389,7 @@
       <c r="C17" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>165779.19</v>
       </c>
     </row>
@@ -1415,7 +1403,7 @@
       <c r="C18" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>104626.74</v>
       </c>
     </row>
@@ -1429,7 +1417,7 @@
       <c r="C19" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1443,7 +1431,7 @@
       <c r="C20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>98889.52</v>
       </c>
     </row>
@@ -1457,7 +1445,7 @@
       <c r="C21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>87117.54</v>
       </c>
     </row>
@@ -1471,7 +1459,7 @@
       <c r="C22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>52436.24</v>
       </c>
     </row>
@@ -1485,7 +1473,7 @@
       <c r="C23" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <v>92254.71</v>
       </c>
     </row>
@@ -1499,7 +1487,7 @@
       <c r="C24" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <v>317976.06</v>
       </c>
     </row>
@@ -1513,7 +1501,7 @@
       <c r="C25" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <v>160791.84</v>
       </c>
     </row>
@@ -1527,7 +1515,7 @@
       <c r="C26" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>125161.23</v>
       </c>
     </row>
@@ -1541,7 +1529,7 @@
       <c r="C27" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="14">
         <v>57804.08</v>
       </c>
     </row>
@@ -1555,7 +1543,7 @@
       <c r="C28" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="14">
         <v>18984.08</v>
       </c>
     </row>
@@ -1569,7 +1557,7 @@
       <c r="C29" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="14">
         <v>135843.51</v>
       </c>
     </row>
@@ -1583,7 +1571,7 @@
       <c r="C30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>18275.91</v>
       </c>
     </row>
@@ -1597,7 +1585,7 @@
       <c r="C31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <v>95325.47</v>
       </c>
     </row>
@@ -1611,7 +1599,7 @@
       <c r="C32" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="14">
         <v>120278.08</v>
       </c>
     </row>
@@ -1625,7 +1613,7 @@
       <c r="C33" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="14">
         <v>24680.47</v>
       </c>
     </row>
@@ -1639,7 +1627,7 @@
       <c r="C34" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="14">
         <v>12577.38</v>
       </c>
     </row>
@@ -1653,7 +1641,7 @@
       <c r="C35" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="14">
         <v>52297.72</v>
       </c>
     </row>
@@ -1667,7 +1655,7 @@
       <c r="C36" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="14" t="s">
         <v>231</v>
       </c>
     </row>
@@ -1676,13 +1664,13 @@
         <v>136</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>233</v>
+      <c r="D37" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1702,8 +1690,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="39.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="44.29071428571429" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="35.57642857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
@@ -2356,10 +2344,10 @@
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>129.73218</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2371,7 +2359,7 @@
       <c r="F29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="3">
         <v>27</v>
       </c>
     </row>
@@ -2545,7 +2533,7 @@
   </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2665,7 +2653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2673,7 +2661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3">
         <v>9</v>
       </c>
@@ -2681,7 +2669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3">
         <v>10</v>
       </c>

--- a/server/loadDataFromExcelToDb/data.xlsx
+++ b/server/loadDataFromExcelToDb/data.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\icyHorizonsDeploy\server\loadDataFromExcelToDb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577EEB0-1B1F-4F72-BFEE-77B6973584CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="AdminCenters"/>
-    <sheet r:id="rId2" sheetId="2" name="Landmarks"/>
-    <sheet r:id="rId3" sheetId="3" name="CategoriesList"/>
-    <sheet r:id="rId4" sheetId="4" name="Tours"/>
-    <sheet r:id="rId5" sheetId="5" name="Categories"/>
-    <sheet r:id="rId6" sheetId="6" name="Markers"/>
-    <sheet r:id="rId7" sheetId="7" name="Roles"/>
+    <sheet name="AdminCenters" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="5" r:id="rId2"/>
+    <sheet name="Landmarks" sheetId="2" r:id="rId3"/>
+    <sheet name="CategoriesList" sheetId="3" r:id="rId4"/>
+    <sheet name="Tours" sheetId="4" r:id="rId5"/>
+    <sheet name="Markers" sheetId="6" r:id="rId6"/>
+    <sheet name="Roles" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="233">
   <si>
     <t>name</t>
   </si>
@@ -731,8 +737,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,62 +799,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -860,10 +862,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -901,71 +903,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -993,7 +995,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1016,11 +1018,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1029,13 +1031,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1045,7 +1047,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1054,7 +1056,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1063,7 +1065,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1071,10 +1073,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1139,537 +1141,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="40.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="13">
-        <v>69434.51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="11">
+        <v>69434.509999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>156819.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>107338.19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>29421.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>55558.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>223582.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>42050.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>67774.17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>137428.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>55193.48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>45624.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>140222.21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>107789.29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>76999.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>11733.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>165779.19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>104626.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>98889.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>192</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <v>87117.54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>52436.24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>92254.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>317976.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>200</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>160791.84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>125161.23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>57804.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="14">
-        <v>18984.08</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+      <c r="D28" s="12">
+        <v>18984.080000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>213</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <v>135843.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>215</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="11">
         <v>18275.91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>95325.47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>219</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <v>120278.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>24680.47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>224</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>12577.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>227</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>228</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>52297.72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>230</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -1679,688 +1681,372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="39.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="44.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="15">
-      <c r="A2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="5">
-        <v>62.528993</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="6" t="s">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="5">
-        <v>69.699207</v>
-      </c>
-      <c r="C3" s="5">
-        <v>154.986644</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
-        <v>61.104872</v>
-      </c>
-      <c r="C4" s="5">
-        <v>127.357231</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5">
-        <v>63.609932</v>
-      </c>
-      <c r="C5" s="5">
-        <v>141.967106</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5">
-        <v>62.235629</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15">
-      <c r="A7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="5">
-        <v>62.091721</v>
-      </c>
-      <c r="C7" s="5">
-        <v>131.418869</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15">
-      <c r="A8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="5">
-        <v>62.196027</v>
-      </c>
-      <c r="C8" s="5">
-        <v>129.779385</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="6" t="s">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>20</v>
       </c>
-      <c r="B9" s="10">
-        <v>62.526466</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10">
-        <v>61.293606</v>
-      </c>
-      <c r="C10" s="10">
-        <v>126.841143</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10">
-        <v>61.338003</v>
-      </c>
-      <c r="C11" s="10">
-        <v>129.070783</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10">
-        <v>61.240282</v>
-      </c>
-      <c r="C12" s="10">
-        <v>128.631973</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="6" t="s">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>22</v>
       </c>
-      <c r="B13" s="10">
-        <v>62.044066</v>
-      </c>
-      <c r="C13" s="10">
-        <v>129.624297</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="10">
-        <v>71.634771</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="10">
-        <v>146.183358</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="10">
-        <v>62.017224</v>
-      </c>
-      <c r="C16" s="10">
-        <v>129.704662</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="10">
-        <v>67.580126</v>
-      </c>
-      <c r="C17" s="10">
-        <v>134.771348</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10">
-        <v>68.513508</v>
-      </c>
-      <c r="C18" s="10">
-        <v>161.505548</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="10">
-        <v>62.025821</v>
-      </c>
-      <c r="C19" s="10">
-        <v>129.734425</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10">
-        <v>72.395736</v>
-      </c>
-      <c r="C20" s="10">
-        <v>126.658152</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="10">
-        <v>61.407452</v>
-      </c>
-      <c r="C21" s="10">
-        <v>129.557162</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="10">
-        <v>65.069134</v>
-      </c>
-      <c r="C22" s="10">
-        <v>132.610524</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="10">
-        <v>56.678277</v>
-      </c>
-      <c r="C23" s="10">
-        <v>124.723457</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="10">
-        <v>56.679089</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="10">
-        <v>111.183333</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="10">
-        <v>62.498777</v>
-      </c>
-      <c r="C26" s="10">
-        <v>143.605418</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="10">
-        <v>67.548461</v>
-      </c>
-      <c r="C27" s="10">
-        <v>133.387222</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="10">
-        <v>62.027221</v>
-      </c>
-      <c r="C28" s="10">
-        <v>129.732178</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="10">
-        <v>129.73218</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="3">
-        <v>27</v>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2369,58 +2055,690 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="47.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3">
+        <v>62.528993</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>69.699207000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>154.98664400000001</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>61.104872</v>
+      </c>
+      <c r="C4" s="3">
+        <v>127.357231</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>63.609932000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>141.967106</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3">
+        <v>62.235629000000003</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3">
+        <v>62.091721</v>
+      </c>
+      <c r="C7" s="3">
+        <v>131.418869</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="3">
+        <v>62.196027000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>129.77938499999999</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8">
+        <v>62.526465999999999</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <v>61.293605999999997</v>
+      </c>
+      <c r="C10" s="8">
+        <v>126.841143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>61.338003</v>
+      </c>
+      <c r="C11" s="8">
+        <v>129.07078300000001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <v>61.240282000000001</v>
+      </c>
+      <c r="C12" s="8">
+        <v>128.63197299999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8">
+        <v>62.044066000000001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>129.62429700000001</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>71.634771000000001</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="8">
+        <v>146.183358</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="8">
+        <v>62.017223999999999</v>
+      </c>
+      <c r="C16" s="8">
+        <v>129.70466200000001</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8">
+        <v>67.580126000000007</v>
+      </c>
+      <c r="C17" s="8">
+        <v>134.77134799999999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>68.513508000000002</v>
+      </c>
+      <c r="C18" s="8">
+        <v>161.505548</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8">
+        <v>62.025821000000001</v>
+      </c>
+      <c r="C19" s="8">
+        <v>129.73442499999999</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>72.395735999999999</v>
+      </c>
+      <c r="C20" s="8">
+        <v>126.658152</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8">
+        <v>61.407451999999999</v>
+      </c>
+      <c r="C21" s="8">
+        <v>129.55716200000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="8">
+        <v>65.069134000000005</v>
+      </c>
+      <c r="C22" s="8">
+        <v>132.610524</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="8">
+        <v>56.678277000000001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>124.723457</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="8">
+        <v>56.679088999999998</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="8">
+        <v>111.183333</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="8">
+        <v>62.498776999999997</v>
+      </c>
+      <c r="C26" s="8">
+        <v>143.60541799999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8">
+        <v>67.548461000000003</v>
+      </c>
+      <c r="C27" s="8">
+        <v>133.38722200000001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="8">
+        <v>62.027220999999997</v>
+      </c>
+      <c r="C28" s="8">
+        <v>129.732178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="8">
+        <v>129.73218</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="1">
         <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2747,69 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2439,442 +2819,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="52.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="4" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="10.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="3">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="3">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="3">
-        <v>14</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="3">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="3">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="3">
-        <v>16</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="3">
-        <v>17</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="3">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="3">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="3">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="3">
-        <v>19</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="3">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="3">
-        <v>20</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="3">
-        <v>21</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="3">
-        <v>22</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="3">
-        <v>23</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="3">
-        <v>24</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="3">
-        <v>24</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="3">
-        <v>25</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="3">
-        <v>26</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2893,215 +2917,215 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>5</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3111,7 +3135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3121,21 +3145,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/server/loadDataFromExcelToDb/data.xlsx
+++ b/server/loadDataFromExcelToDb/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\icyHorizonsDeploy\server\loadDataFromExcelToDb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577EEB0-1B1F-4F72-BFEE-77B6973584CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622AB817-5AC9-42DF-BD1F-D57FA069A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminCenters" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Tours" sheetId="4" r:id="rId5"/>
     <sheet name="Markers" sheetId="6" r:id="rId6"/>
     <sheet name="Roles" sheetId="7" r:id="rId7"/>
+    <sheet name="userGroupAnalysis" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="246">
   <si>
     <t>name</t>
   </si>
@@ -732,6 +733,45 @@
   </si>
   <si>
     <t>3083523.00</t>
+  </si>
+  <si>
+    <t>Экотуристы</t>
+  </si>
+  <si>
+    <t>Любитель природы</t>
+  </si>
+  <si>
+    <t>Охотник за адреналином</t>
+  </si>
+  <si>
+    <t>Исследователь культур</t>
+  </si>
+  <si>
+    <t>Ценитель отдыха</t>
+  </si>
+  <si>
+    <t>Экстремальные туристы</t>
+  </si>
+  <si>
+    <t>Этнографические туристы</t>
+  </si>
+  <si>
+    <t>Рекреационные туристы</t>
+  </si>
+  <si>
+    <t>Путешествуете ради экологии и живописных мест</t>
+  </si>
+  <si>
+    <t>Ищете драйв, экстрим и новые высоты</t>
+  </si>
+  <si>
+    <t>Углубляетесь в традиции и быт народов</t>
+  </si>
+  <si>
+    <t>Наслаждаетесь комфортом, спокойствием и природой</t>
+  </si>
+  <si>
+    <t>nameForUser</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1187,7 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3166,4 +3206,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C1E2B9-39BE-45EC-AFB0-C4686DAD09EE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/server/loadDataFromExcelToDb/data.xlsx
+++ b/server/loadDataFromExcelToDb/data.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\icyHorizonsDeploy\server\loadDataFromExcelToDb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00406F5-F850-47CD-A992-E5B6C7AB42DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="AdminCenters"/>
-    <sheet r:id="rId2" sheetId="2" name="Categories"/>
-    <sheet r:id="rId3" sheetId="3" name="Landmarks"/>
-    <sheet r:id="rId4" sheetId="4" name="CategoriesList"/>
-    <sheet r:id="rId5" sheetId="5" name="Tours"/>
-    <sheet r:id="rId6" sheetId="6" name="Markers"/>
-    <sheet r:id="rId7" sheetId="7" name="Roles"/>
-    <sheet r:id="rId8" sheetId="8" name="userGroupAnalysis"/>
+    <sheet name="AdminCenters" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="Landmarks" sheetId="3" r:id="rId3"/>
+    <sheet name="CategoriesList" sheetId="4" r:id="rId4"/>
+    <sheet name="Tours" sheetId="5" r:id="rId5"/>
+    <sheet name="Markers" sheetId="6" r:id="rId6"/>
+    <sheet name="Roles" sheetId="7" r:id="rId7"/>
+    <sheet name="userGroupAnalysis" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -771,8 +777,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -828,59 +833,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -891,10 +893,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -932,71 +934,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1024,7 +1026,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1047,11 +1049,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1060,13 +1062,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1076,7 +1078,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1085,7 +1087,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1094,7 +1096,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1102,10 +1104,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1170,537 +1172,539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="40.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="12">
-        <v>69434.51</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="10">
+        <v>69434.509999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>156819.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>107338.19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>29421.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>55558.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>223582.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>42050.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>67774.17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>137428.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>55193.48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>45624.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>140222.21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>107789.29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>76999.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>11733.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>165779.19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>104626.74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <v>98889.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>205</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>87117.54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>206</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <v>52436.24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="11">
         <v>92254.71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <v>317976.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="11">
         <v>160791.84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>216</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>218</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="11">
         <v>125161.23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>219</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="11">
         <v>57804.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="13">
-        <v>18984.08</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+      <c r="D28" s="11">
+        <v>18984.080000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>224</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="11">
         <v>135843.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>18275.91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="11">
         <v>95325.47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>232</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="11">
         <v>120278.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="11">
         <v>24680.47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>237</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="11">
         <v>12577.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>240</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>241</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="11">
         <v>52297.72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>243</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>245</v>
       </c>
     </row>
@@ -1710,7 +1714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1720,359 +1724,359 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3">
+    <row r="18" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3">
+    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="3">
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="3">
+    <row r="21" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="3">
+    <row r="22" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="3">
+    <row r="23" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="3">
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="3">
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>14</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="3">
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="3">
+    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>15</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="3">
+    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>16</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="3">
+    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>17</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="3">
+    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>17</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="3">
+    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>18</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="3">
+    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>18</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="3">
+    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>19</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="3">
+    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>20</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="3">
+    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>20</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="3">
+    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>21</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="3">
+    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>22</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="3">
+    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>23</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="3">
+    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>23</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="3">
+    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>24</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="3">
+    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>24</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="3">
+    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>25</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>26</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>26</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2082,687 +2086,689 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="39.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="44.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="15">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>62.528993</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5">
-        <v>69.699207</v>
-      </c>
-      <c r="C3" s="5">
-        <v>154.986644</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="3">
+        <v>69.699207000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>154.98664400000001</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>61.104872</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>127.357231</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
-        <v>63.609932</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="3">
+        <v>63.609932000000001</v>
+      </c>
+      <c r="C5" s="3">
         <v>141.967106</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="5">
-        <v>62.235629</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="3">
+        <v>62.235629000000003</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>62.091721</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>131.418869</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="5">
-        <v>62.196027</v>
-      </c>
-      <c r="C8" s="5">
-        <v>129.779385</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="3">
+        <v>62.196027000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>129.77938499999999</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10">
-        <v>62.526466</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="8">
+        <v>62.526465999999999</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="10">
-        <v>61.293606</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="8">
+        <v>61.293605999999997</v>
+      </c>
+      <c r="C10" s="8">
         <v>126.841143</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>61.338003</v>
       </c>
-      <c r="C11" s="10">
-        <v>129.070783</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="8">
+        <v>129.07078300000001</v>
+      </c>
+      <c r="D11" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10">
-        <v>61.240282</v>
-      </c>
-      <c r="C12" s="10">
-        <v>128.631973</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="8">
+        <v>61.240282000000001</v>
+      </c>
+      <c r="C12" s="8">
+        <v>128.63197299999999</v>
+      </c>
+      <c r="D12" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10">
-        <v>62.044066</v>
-      </c>
-      <c r="C13" s="10">
-        <v>129.624297</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="8">
+        <v>62.044066000000001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>129.62429700000001</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="10">
-        <v>71.634771</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="8">
+        <v>71.634771000000001</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>146.183358</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="10">
-        <v>62.017224</v>
-      </c>
-      <c r="C16" s="10">
-        <v>129.704662</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="8">
+        <v>62.017223999999999</v>
+      </c>
+      <c r="C16" s="8">
+        <v>129.70466200000001</v>
+      </c>
+      <c r="D16" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="10">
-        <v>67.580126</v>
-      </c>
-      <c r="C17" s="10">
-        <v>134.771348</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="8">
+        <v>67.580126000000007</v>
+      </c>
+      <c r="C17" s="8">
+        <v>134.77134799999999</v>
+      </c>
+      <c r="D17" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="10">
-        <v>68.513508</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" s="8">
+        <v>68.513508000000002</v>
+      </c>
+      <c r="C18" s="8">
         <v>161.505548</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="10">
-        <v>62.025821</v>
-      </c>
-      <c r="C19" s="10">
-        <v>129.734425</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="8">
+        <v>62.025821000000001</v>
+      </c>
+      <c r="C19" s="8">
+        <v>129.73442499999999</v>
+      </c>
+      <c r="D19" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="10">
-        <v>72.395736</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="8">
+        <v>72.395735999999999</v>
+      </c>
+      <c r="C20" s="8">
         <v>126.658152</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10">
-        <v>61.407452</v>
-      </c>
-      <c r="C21" s="10">
-        <v>129.557162</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="8">
+        <v>61.407451999999999</v>
+      </c>
+      <c r="C21" s="8">
+        <v>129.55716200000001</v>
+      </c>
+      <c r="D21" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="10">
-        <v>65.069134</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="B22" s="8">
+        <v>65.069134000000005</v>
+      </c>
+      <c r="C22" s="8">
         <v>132.610524</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="10">
-        <v>56.678277</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="8">
+        <v>56.678277000000001</v>
+      </c>
+      <c r="C23" s="8">
         <v>124.723457</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="10">
-        <v>56.679089</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="8">
+        <v>56.679088999999998</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>111.183333</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="10">
-        <v>62.498777</v>
-      </c>
-      <c r="C26" s="10">
-        <v>143.605418</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="8">
+        <v>62.498776999999997</v>
+      </c>
+      <c r="C26" s="8">
+        <v>143.60541799999999</v>
+      </c>
+      <c r="D26" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="10">
-        <v>67.548461</v>
-      </c>
-      <c r="C27" s="10">
-        <v>133.387222</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B27" s="8">
+        <v>67.548461000000003</v>
+      </c>
+      <c r="C27" s="8">
+        <v>133.38722200000001</v>
+      </c>
+      <c r="D27" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="10">
-        <v>62.027221</v>
-      </c>
-      <c r="C28" s="10">
+      <c r="B28" s="8">
+        <v>62.027220999999997</v>
+      </c>
+      <c r="C28" s="8">
         <v>129.732178</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>129.73218</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <v>27</v>
       </c>
     </row>
@@ -2772,7 +2778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2782,47 +2788,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="47.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2832,7 +2838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2842,85 +2848,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="52.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="47.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2930,7 +2936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2940,215 +2946,215 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>5</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3158,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3168,21 +3174,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3192,73 +3198,73 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="52.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
